--- a/StructureDefinition-ViralHepatitisCareFormModel.xlsx
+++ b/StructureDefinition-ViralHepatitisCareFormModel.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T09:22:23+00:00</t>
+    <t>2022-08-11T06:55:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
